--- a/biology/Botanique/Alluaudia_ascendens/Alluaudia_ascendens.xlsx
+++ b/biology/Botanique/Alluaudia_ascendens/Alluaudia_ascendens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alluaudia ascendens est une plante de la famille des Didiereaceae endémique localisée dans la vallée du Mandrare au sud de Madagascar, croissant sur sables alluvionnaires.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Didierea ascendens Drake
 Nom commun malagasy: Fantsiolotse</t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbres ou arbustes épineux.
 Alluaudia ascendens est l'espèce d'Alluaudia la plus haute, sa taille courante est de 5 à 10 mètres mais elle peut atteindre 12 voire 15 mètres.
@@ -577,7 +593,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois d'Alluaudia ascendens est utilisé localement dans la construction d'habitations. Il sert également de combustible, notamment sous la forme de charbon de bois.
 </t>
